--- a/data/trans_orig/P55S7-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36D4C6D-8BAF-411D-9E14-3C85F67B9F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0954E302-EA9F-4060-A1BC-9598360F3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C62BA66-BD91-4F3E-A9C0-73B07E0561D6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DA80D24-DB8F-44B1-A752-6EE1050E664F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1A2A6-F32A-483E-8E75-6ABA110AC1B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F7EF6F-FAA5-4AAC-9665-3ED987B269A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P55S7-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P55S7-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0954E302-EA9F-4060-A1BC-9598360F3440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2008A011-D391-49DC-B1AA-EE3F197DEB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DA80D24-DB8F-44B1-A752-6EE1050E664F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C3732C5-911D-4530-8754-F562220E71E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Enfermero/a del centro de salud o ambulatorio</t>
@@ -74,7 +74,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,10 +86,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F7EF6F-FAA5-4AAC-9665-3ED987B269A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042C90EC-E6B5-4949-8438-7E44F7550A79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
